--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1_STUDY\EclipseWorkPlace_New\KeywordDriven_withObjectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1_STUDY\EclipseWorkPlace_New\KeywordDriven_withObjectRepository\src\java\tests\keywordtestcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="leathershoplogin" sheetId="1" r:id="rId1"/>
+    <sheet name="cangotomensformalshoepage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>TC_NO</t>
   </si>
@@ -71,9 +72,6 @@
     <t>clickLink</t>
   </si>
   <si>
-    <t>verifyText</t>
-  </si>
-  <si>
     <t>sandipan.mca@gmail.com</t>
   </si>
   <si>
@@ -90,13 +88,64 @@
   </si>
   <si>
     <t>Locator Key</t>
+  </si>
+  <si>
+    <t>verifyExactText</t>
+  </si>
+  <si>
+    <t>Verification Text</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Log in to site</t>
+  </si>
+  <si>
+    <t>Move to menu option men</t>
+  </si>
+  <si>
+    <t>leathershop.menu.men</t>
+  </si>
+  <si>
+    <t>moveToElement</t>
+  </si>
+  <si>
+    <t>Move to sub menu formal and click</t>
+  </si>
+  <si>
+    <t>leathershop.men.submenu.formal</t>
+  </si>
+  <si>
+    <t>moveToElementAndClick</t>
+  </si>
+  <si>
+    <t>Vefify formal page</t>
+  </si>
+  <si>
+    <t>leathershop.men.formalshoepage.formaltext</t>
+  </si>
+  <si>
+    <t>verifyTextContains</t>
+  </si>
+  <si>
+    <t>FORMAL</t>
+  </si>
+  <si>
+    <t>Log out from site</t>
+  </si>
+  <si>
+    <t>logoutFromSite</t>
+  </si>
+  <si>
+    <t>loginToSite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +157,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,9 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,21 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -448,8 +507,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -463,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -474,13 +536,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -491,13 +553,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -508,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -522,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -534,4 +596,114 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="leathershoplogin" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Password1</t>
   </si>
   <si>
-    <t>Sandipan Pramanik</t>
-  </si>
-  <si>
     <t>clickButton</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>loginToSite</t>
+  </si>
+  <si>
+    <t>Sandipan Pramani</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -632,74 +632,74 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -138,7 +138,7 @@
     <t>loginToSite</t>
   </si>
   <si>
-    <t>Sandipan Pramani</t>
+    <t>Sandipan Pramanik</t>
   </si>
 </sst>
 </file>

--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="leathershoplogin" sheetId="1" r:id="rId1"/>
     <sheet name="cangotomensformalshoepage" sheetId="2" r:id="rId2"/>
+    <sheet name="formalShoepageSorting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>TC_NO</t>
   </si>
@@ -139,6 +140,36 @@
   </si>
   <si>
     <t>Sandipan Pramanik</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Log into site</t>
+  </si>
+  <si>
+    <t>moveToMensFormalShoePage</t>
+  </si>
+  <si>
+    <t>Move to formal shoe page</t>
+  </si>
+  <si>
+    <t>Select combo option</t>
+  </si>
+  <si>
+    <t>leathershop.men.formalshoepage.sortDropDown</t>
+  </si>
+  <si>
+    <t>selectComboOption</t>
+  </si>
+  <si>
+    <t>Price: Lowest first</t>
+  </si>
+  <si>
+    <t>verify combo selection</t>
+  </si>
+  <si>
+    <t>verifyComboSelection</t>
   </si>
 </sst>
 </file>
@@ -478,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,23 +522,23 @@
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -595,6 +626,7 @@
     <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -706,4 +738,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>TC_NO</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>verifyComboSelection</t>
+  </si>
+  <si>
+    <t>Price: Lowest firs</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>TC_NO</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>verifyComboSelection</t>
-  </si>
-  <si>
-    <t>Price: Lowest firs</t>
   </si>
 </sst>
 </file>
@@ -832,7 +829,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/java/tests/keywordtestcases/TestCases.xlsx
+++ b/src/java/tests/keywordtestcases/TestCases.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="leathershoplogin" sheetId="1" r:id="rId1"/>
     <sheet name="cangotomensformalshoepage" sheetId="2" r:id="rId2"/>
     <sheet name="formalShoepageSorting" sheetId="3" r:id="rId3"/>
+    <sheet name="canaddformalshoetocart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>TC_NO</t>
   </si>
@@ -170,6 +171,39 @@
   </si>
   <si>
     <t>verifyComboSelection</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Click on list display</t>
+  </si>
+  <si>
+    <t>leathershop.men.formalshoepage.listview</t>
+  </si>
+  <si>
+    <t>Click on Add to cart of first shoe</t>
+  </si>
+  <si>
+    <t>leathershop.men.formalshoepage.addtoCart</t>
+  </si>
+  <si>
+    <t>leathershop.cartpopup.proceedtocheckout</t>
+  </si>
+  <si>
+    <t>Click on ProceedToCheckOutButton</t>
+  </si>
+  <si>
+    <t>Verify formal shoe added on cart</t>
+  </si>
+  <si>
+    <t>leathershop.cartpage.table</t>
+  </si>
+  <si>
+    <t>verifyFormalShoeAddedToCart</t>
+  </si>
+  <si>
+    <t>Casual Wear</t>
   </si>
 </sst>
 </file>
@@ -510,7 +544,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,4 +869,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>